--- a/Data/cases_per_day.xlsx
+++ b/Data/cases_per_day.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan Omonte\Documents\Documentos 2019\Covid-Bolivia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan Omonte\Documents\Documentos 2019\Covid-Bolivia\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9247686-2C62-4D1D-8CC2-2D486F65ED7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B9ACC4-C8AC-47FF-8386-1F05FB0C1AD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="1188" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{68BFC111-A331-448D-A3EE-63BDB1C922A9}"/>
+    <workbookView xWindow="2808" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{68BFC111-A331-448D-A3EE-63BDB1C922A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Bolivia" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -134,7 +134,7 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -453,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C694B40-9BCC-4415-B648-A48368F44DE4}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1516,6 +1516,23 @@
       </c>
       <c r="E62">
         <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B63">
+        <v>107</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1529,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8510A8F-4566-4A23-B96E-3142F97D3855}">
   <dimension ref="A1:AX14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1602,7 +1619,9 @@
       <c r="V1" s="1">
         <v>43920</v>
       </c>
-      <c r="W1" s="1"/>
+      <c r="W1" s="1">
+        <v>43921</v>
+      </c>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
@@ -1698,6 +1717,9 @@
       <c r="V2">
         <v>13</v>
       </c>
+      <c r="W2">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1766,6 +1788,9 @@
       <c r="V3">
         <v>18</v>
       </c>
+      <c r="W3">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1834,6 +1859,9 @@
       <c r="V4">
         <v>52</v>
       </c>
+      <c r="W4">
+        <v>59</v>
+      </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1902,6 +1930,9 @@
       <c r="V5">
         <v>8</v>
       </c>
+      <c r="W5">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1970,6 +2001,9 @@
       <c r="V6">
         <v>3</v>
       </c>
+      <c r="W6">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -2038,6 +2072,9 @@
       <c r="V7">
         <v>1</v>
       </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2106,6 +2143,9 @@
       <c r="V8">
         <v>0</v>
       </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -2174,6 +2214,9 @@
       <c r="V9">
         <v>1</v>
       </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -2240,6 +2283,9 @@
         <v>0</v>
       </c>
       <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
         <v>1</v>
       </c>
     </row>
@@ -2255,8 +2301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87ACCE0-3670-4A7E-91B9-4BEB1B6D88B8}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
